--- a/intro.xlsx
+++ b/intro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Manisha</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,25 +402,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
